--- a/ClassNamesTestData.xlsx
+++ b/ClassNamesTestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/natalienova/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/natalienova/LCL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5A51728-BC3E-824D-B7EE-1BE486C8724E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D972550-4A83-B94F-9286-D1E511921EFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14120" xr2:uid="{EBF7C09A-2ADB-AA45-A093-0E2348C0D753}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Liam</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>Names</t>
+  </si>
+  <si>
+    <t>Natalie</t>
   </si>
 </sst>
 </file>
@@ -484,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2334FED9-FC47-8142-8F9D-18C85EDE38A5}">
-  <dimension ref="A1:A31"/>
+  <dimension ref="A1:A32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -647,6 +650,11 @@
         <v>29</v>
       </c>
     </row>
+    <row r="32" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ClassNamesTestData.xlsx
+++ b/ClassNamesTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/natalienova/LCL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D972550-4A83-B94F-9286-D1E511921EFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BE1904-7CE8-F442-9E29-C8532BB47FC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14120" xr2:uid="{EBF7C09A-2ADB-AA45-A093-0E2348C0D753}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Liam</t>
   </si>
@@ -126,9 +126,6 @@
   </si>
   <si>
     <t>Names</t>
-  </si>
-  <si>
-    <t>Natalie</t>
   </si>
 </sst>
 </file>
@@ -490,7 +487,7 @@
   <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -651,9 +648,7 @@
       </c>
     </row>
     <row r="32" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="A32" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ClassNamesTestData.xlsx
+++ b/ClassNamesTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/natalienova/LCL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BE1904-7CE8-F442-9E29-C8532BB47FC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A68DCE-B64F-6241-A1F6-20119984635E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14120" xr2:uid="{EBF7C09A-2ADB-AA45-A093-0E2348C0D753}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Liam</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>Names</t>
+  </si>
+  <si>
+    <t>Natalie</t>
   </si>
 </sst>
 </file>
@@ -486,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2334FED9-FC47-8142-8F9D-18C85EDE38A5}">
   <dimension ref="A1:A32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -648,7 +651,9 @@
       </c>
     </row>
     <row r="32" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
